--- a/API/MyAssets/uploaded/sample/Bao_cao_khach_hang.xlsx
+++ b/API/MyAssets/uploaded/sample/Bao_cao_khach_hang.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BK\Source\Petrotimes\petrotimes-back-end\API\MyAssets\uploaded\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy_Cute\Desktop\Web_DoAn\API\MyAssets\uploaded\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35EB374-0035-4A5D-9DAC-6C48AD9EDC86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Bao_cao_khach_hang" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -45,100 +44,37 @@
     <t>Mã khách hàng</t>
   </si>
   <si>
-    <t>Vùng</t>
-  </si>
-  <si>
-    <t>Loại khách hàng</t>
-  </si>
-  <si>
-    <t>Ngành nghề</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Chức vụ</t>
-  </si>
-  <si>
-    <t>Sản lượng hàng tháng</t>
-  </si>
-  <si>
-    <t>Phương án nhập hàng</t>
-  </si>
-  <si>
-    <t>Nhà CC hiện tại</t>
-  </si>
-  <si>
-    <t>Giá chiết khấu</t>
-  </si>
-  <si>
-    <t>Mong muốn khách hàng</t>
-  </si>
-  <si>
-    <t>Vấn đề nhà CC cũ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đánh giá chung </t>
-  </si>
-  <si>
     <t>Lưu ý</t>
   </si>
   <si>
     <t>Thống kê khách hàng</t>
   </si>
   <si>
-    <t>Người đại diện PL</t>
-  </si>
-  <si>
-    <t>SĐT người đại diện</t>
-  </si>
-  <si>
-    <t>Kế toán</t>
-  </si>
-  <si>
-    <t>SĐT Kế toán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công nợ </t>
-  </si>
-  <si>
-    <t>Check CIC</t>
-  </si>
-  <si>
-    <t>Bão lãnh thanh toán</t>
-  </si>
-  <si>
-    <t>Mã số thuế</t>
-  </si>
-  <si>
-    <t>Địa chỉ giao hàng</t>
-  </si>
-  <si>
-    <t>Văn phòng giao dịch</t>
-  </si>
-  <si>
-    <t>Email nhận hóa đơn</t>
-  </si>
-  <si>
-    <t>Người quyết định mua hàng</t>
-  </si>
-  <si>
-    <t>SĐT người quyết định mua hàng</t>
-  </si>
-  <si>
-    <t>Hạn mức</t>
-  </si>
-  <si>
-    <t>Thời hạn nợ</t>
-  </si>
-  <si>
-    <t>Đề xuất NVKD</t>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Công việc hiện tại</t>
+  </si>
+  <si>
+    <t>Chiều cao</t>
+  </si>
+  <si>
+    <t>Cân nặng</t>
+  </si>
+  <si>
+    <t>Tình trạng sức khỏe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,9 +154,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -527,170 +460,72 @@
     <col min="11" max="11" width="37.5703125" style="4" customWidth="1"/>
     <col min="12" max="13" width="24" style="4" customWidth="1"/>
     <col min="14" max="14" width="49.140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="30.28515625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="31.7109375" style="4" customWidth="1"/>
-    <col min="19" max="25" width="22.5703125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="28.85546875" style="4" customWidth="1"/>
-    <col min="27" max="27" width="36.7109375" style="4" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" style="4" customWidth="1"/>
-    <col min="29" max="30" width="22.5703125" style="4" customWidth="1"/>
-    <col min="31" max="31" width="29.7109375" style="4" customWidth="1"/>
-    <col min="32" max="32" width="54.140625" style="4" customWidth="1"/>
-    <col min="33" max="33" width="54.5703125" style="4" customWidth="1"/>
-    <col min="34" max="34" width="40" style="4" customWidth="1"/>
-    <col min="35" max="35" width="49.140625" style="4" customWidth="1"/>
-    <col min="36" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
+    <row r="1" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -705,34 +540,13 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D5" s="6"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
